--- a/table_ref/ref3/acuan.xlsx
+++ b/table_ref/ref3/acuan.xlsx
@@ -1,27 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kuliah\Tahun 2012-2016\Tahun_Ke-4\TUGAS AKHIR\TA menuju finish\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Jurnal" sheetId="3" r:id="rId1"/>
     <sheet name="Akun" sheetId="2" r:id="rId2"/>
     <sheet name="Laporan Keuangan" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -201,9 +191,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="42" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="&quot;Rp&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="&quot;Rp&quot;#,##0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -362,60 +352,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -430,9 +384,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,7 +484,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,7 +519,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -706,7 +696,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -733,59 +723,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="21">
+      <c r="D3" s="28">
         <v>41275</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="24"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1056,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,33 +1057,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="33" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1104,11 +1094,14 @@
       <c r="C4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
       <c r="B5" s="2">
         <v>101</v>
       </c>
@@ -1129,6 +1122,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
       <c r="B6" s="2">
         <v>102</v>
       </c>
@@ -1149,6 +1145,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
       <c r="B7" s="2">
         <v>201</v>
       </c>
@@ -1169,6 +1168,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
       <c r="B8" s="2">
         <v>301</v>
       </c>
@@ -1189,6 +1191,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
       <c r="B9" s="9">
         <v>302</v>
       </c>
@@ -1209,6 +1214,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
       <c r="B10" s="2">
         <v>401</v>
       </c>
@@ -1229,6 +1237,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
       <c r="B11" s="2">
         <v>402</v>
       </c>
@@ -1249,6 +1260,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
       <c r="B12" s="2">
         <v>403</v>
       </c>
@@ -1269,6 +1283,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
       <c r="B13" s="2">
         <v>404</v>
       </c>
@@ -1289,6 +1306,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
       <c r="B14" s="2">
         <v>501</v>
       </c>
@@ -1309,6 +1329,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
       <c r="B15" s="11">
         <v>502</v>
       </c>
@@ -1435,7 +1458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -1453,28 +1476,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="E1" s="28" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="E1" s="34" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="7"/>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="20"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="E2" s="28"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1493,11 +1516,11 @@
       <c r="F3" s="13">
         <v>0</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="27"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1618,11 +1641,11 @@
         <v>45000</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="27"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1659,11 +1682,11 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="str">
+      <c r="A12" s="37" t="str">
         <f>IF(C3&gt;C7,"Laba Bersih","Rugi Bersih")</f>
         <v>Laba Bersih</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="16">
         <f>IF(C3&gt;C7,C3-C7,C7-C3)</f>
         <v>23355000</v>
@@ -1680,22 +1703,22 @@
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="34" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="39"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="20" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="21" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="10">
@@ -1705,7 +1728,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="21" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="10">
@@ -1723,21 +1746,21 @@
       </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="20" t="s">
         <v>51</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="21" t="s">
         <v>52</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="10">
@@ -1747,7 +1770,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="10">
@@ -1757,7 +1780,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="22" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="10">
@@ -1775,29 +1798,29 @@
       </c>
     </row>
     <row r="26" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="36"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="16">
         <f>G19-G25</f>
         <v>28355000</v>
       </c>
     </row>
     <row r="27" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="25" t="s">
         <v>54</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="38">
+      <c r="G27" s="26">
         <v>5000000</v>
       </c>
     </row>
     <row r="28" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="36"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="16">
         <f>SUM(G26:G27)</f>
         <v>33355000</v>
